--- a/waitlist.xlsx
+++ b/waitlist.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emreoktem/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AD3C24-C839-6F45-8064-C93B399F1E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632B4E08-8F1C-7E45-8D8E-FEBAA8FA577B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16640" xr2:uid="{102F574E-2163-BA4D-8465-797C82489BB5}"/>
+    <workbookView xWindow="7440" yWindow="1880" windowWidth="38140" windowHeight="25180" xr2:uid="{102F574E-2163-BA4D-8465-797C82489BB5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,513 +36,432 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
-  <si>
-    <t>k_ilhami@hotmail.com</t>
-  </si>
-  <si>
-    <t>bfrxnwsm6b@privaterelay.appleid.com</t>
-  </si>
-  <si>
-    <t>siyahbeyaz11@hotmail.com</t>
-  </si>
-  <si>
-    <t>jcpnydzdnx@privaterelay.appleid.com</t>
-  </si>
-  <si>
-    <t>namli03@gmail.com</t>
-  </si>
-  <si>
-    <t>recepsert100@gmail.com</t>
-  </si>
-  <si>
-    <t>selahattinshn60@gmail.com</t>
-  </si>
-  <si>
-    <t>mehmetahmettaylan@gmail.com</t>
-  </si>
-  <si>
-    <t>befeturkmen@gmail.com</t>
-  </si>
-  <si>
-    <t>adartuner@gmail.com</t>
-  </si>
-  <si>
-    <t>mariepaulcy@gmail.com</t>
-  </si>
-  <si>
-    <t>mekaragoz74@gmail.com</t>
-  </si>
-  <si>
-    <t>frswagswagfr@gmail.com</t>
-  </si>
-  <si>
-    <t>d868419@gmail.com</t>
-  </si>
-  <si>
-    <t>genshdaa@gmail.com</t>
-  </si>
-  <si>
-    <t>d1nlay182@gmail.com</t>
-  </si>
-  <si>
-    <t>dq1nlay@gmail.com</t>
-  </si>
-  <si>
-    <t>yalcinnebiler@gmail.com</t>
-  </si>
-  <si>
-    <t>akayhabes@gmail.com</t>
-  </si>
-  <si>
-    <t>sounddie88@gmail.com</t>
-  </si>
-  <si>
-    <t>slowdive182@gmail.com</t>
-  </si>
-  <si>
-    <t>slowdive183@gmail.com</t>
-  </si>
-  <si>
-    <t>cryptolove182@gmail.com</t>
-  </si>
-  <si>
-    <t>hacitepe@hotmail.com</t>
-  </si>
-  <si>
-    <t>mehmetcskn058@gmail.com</t>
-  </si>
-  <si>
-    <t>edwardkaya5634@gmail.com</t>
-  </si>
-  <si>
-    <t>akaz0408@icloud.com</t>
-  </si>
-  <si>
-    <t>25hsngvn25@gmail.com</t>
-  </si>
-  <si>
-    <t>xmasss2023@gmail.com</t>
-  </si>
-  <si>
-    <t>arthurril@gmail.com</t>
-  </si>
-  <si>
-    <t>juvencio1741@yahoo.com</t>
-  </si>
-  <si>
-    <t>metalcore1qaz2wsx@gmail.com</t>
-  </si>
-  <si>
-    <t>keremsina57@gmail.com</t>
-  </si>
-  <si>
-    <t>ametebatu@gmail.com</t>
-  </si>
-  <si>
-    <t>ecehanarslan.90@gmail.com</t>
-  </si>
-  <si>
-    <t>duygu.gungor62@gmail.com</t>
-  </si>
-  <si>
-    <t>aswonx@gmail.com</t>
-  </si>
-  <si>
-    <t>erenemirgogo@gmail.com</t>
-  </si>
-  <si>
-    <t>metinlerprofil@gmail.com</t>
-  </si>
-  <si>
-    <t>mustafakorkuluk1@gmail.com</t>
-  </si>
-  <si>
-    <t>aslanserife55@gmail.com</t>
-  </si>
-  <si>
-    <t>arquivodrz@gmail.com</t>
-  </si>
-  <si>
-    <t>ayse_aydin@live.nl</t>
-  </si>
-  <si>
-    <t>6zbqcxtstv@privaterelay.appleid.com</t>
-  </si>
-  <si>
-    <t>withtheguh@gmail.com</t>
-  </si>
-  <si>
-    <t>burceeyup@gmail.com</t>
-  </si>
-  <si>
-    <t>ygerdem580@gmail.com</t>
-  </si>
-  <si>
-    <t>ahmetakbas87@gmail.com</t>
-  </si>
-  <si>
-    <t>ccfy7v98sq@privaterelay.appleid.com</t>
-  </si>
-  <si>
-    <t>yunuscinler@gmail.com</t>
-  </si>
-  <si>
-    <t>yusufgecgil2727@gmail.com</t>
-  </si>
-  <si>
-    <t>abdullahaksin@gmail.com</t>
-  </si>
-  <si>
-    <t>hiracelopsiyon@gmail.com</t>
-  </si>
-  <si>
-    <t>captaintrades65@gmail.com</t>
-  </si>
-  <si>
-    <t>suzgun.insaat@hotmail.com</t>
-  </si>
-  <si>
-    <t>mstfyigit005@icloud.com</t>
-  </si>
-  <si>
-    <t>karubdzl@gmail.com</t>
-  </si>
-  <si>
-    <t>imgeds@hotmail.com</t>
-  </si>
-  <si>
-    <t>fleurdelyscouture@gmail.com</t>
-  </si>
-  <si>
-    <t>erogluremziye00@gmail.com</t>
-  </si>
-  <si>
-    <t>gurbuzkasik@gmail.com</t>
-  </si>
-  <si>
-    <t>vestra53@hotmail.com</t>
-  </si>
-  <si>
-    <t>santral.as.serkan@gmail.com</t>
-  </si>
-  <si>
-    <t>sedat17020@gmail.com</t>
-  </si>
-  <si>
-    <t>mehmet70meral@gmail.com</t>
-  </si>
-  <si>
-    <t>alikemalyilmaz07@gmail.com</t>
-  </si>
-  <si>
-    <t>mehmetermenekli70@gmail.com</t>
-  </si>
-  <si>
-    <t>isixiyev97@gmail.com</t>
-  </si>
-  <si>
-    <t>mekanyazliyev@icloud.com</t>
-  </si>
-  <si>
-    <t>batuhantuccanfree@gmail.com</t>
-  </si>
-  <si>
-    <t>qymfb9ngkm@privaterelay.appleid.com</t>
-  </si>
-  <si>
-    <t>unallsamedd@gmail.com</t>
-  </si>
-  <si>
-    <t>unalllsameddd@gmail.com</t>
-  </si>
-  <si>
-    <t>c87p98n6fc@privaterelay.appleid.com</t>
-  </si>
-  <si>
-    <t>dammzy6608@gmail.com</t>
-  </si>
-  <si>
-    <t>bilmemkiii987@gmail.com</t>
-  </si>
-  <si>
-    <t>bng8mhzj7n@privaterelay.appleid.com</t>
-  </si>
-  <si>
-    <t>sedatgo@hotmail.com</t>
-  </si>
-  <si>
-    <t>mazideaydogdu@gmail.com</t>
-  </si>
-  <si>
-    <t>yirtildedim@hotmail.com</t>
-  </si>
-  <si>
-    <t>hamzayildirim353535@gmail.com</t>
-  </si>
-  <si>
-    <t>erdemyeral@gmail.com</t>
-  </si>
-  <si>
-    <t>vestra57@hotmail.com</t>
-  </si>
-  <si>
-    <t>rdvnerbs2@gmail.com</t>
-  </si>
-  <si>
-    <t>jxbkyx64v2@privaterelay.appleid.com</t>
-  </si>
-  <si>
-    <t>vestra59@hotmail.com</t>
-  </si>
-  <si>
-    <t>vestra60@hotmail.com</t>
-  </si>
-  <si>
-    <t>vestra61@hotmail.com</t>
-  </si>
-  <si>
-    <t>vestra50@hotmail.com</t>
-  </si>
-  <si>
-    <t>sondakikim@gmail.com</t>
-  </si>
-  <si>
-    <t>hukahkao1@gmail.com</t>
-  </si>
-  <si>
-    <t>semihsrkya0024@gmail.com</t>
-  </si>
-  <si>
-    <t>tfh677pb9z@privaterelay.appleid.com</t>
-  </si>
-  <si>
-    <t>azmiunal27@gmail.com</t>
-  </si>
-  <si>
-    <t>gecgilfatmaayhan@gmail.com</t>
-  </si>
-  <si>
-    <t>ecrinklc08@gmail.com</t>
-  </si>
-  <si>
-    <t>sametabdul1904@gmail.com</t>
-  </si>
-  <si>
-    <t>batuhanbasaran606@gmail.com</t>
-  </si>
-  <si>
-    <t>onursecer@gmail.com</t>
-  </si>
-  <si>
-    <t>samil4297@gmail.com</t>
-  </si>
-  <si>
-    <t>ylcn.kaya@gmail.com</t>
-  </si>
-  <si>
-    <t>omerkeklik1975@gmail.com</t>
-  </si>
-  <si>
-    <t>muratgulcetiner@gmail.com</t>
-  </si>
-  <si>
-    <t>hcvgggcbh@gmail.com</t>
-  </si>
-  <si>
-    <t>santur144@gmail.com</t>
-  </si>
-  <si>
-    <t>cemaldenizsabanci91@gmail.com</t>
-  </si>
-  <si>
-    <t>sabanciemre2@gmail.com</t>
-  </si>
-  <si>
-    <t>cdsfilmstr@gmail.com</t>
-  </si>
-  <si>
-    <t>cdscryptotv@gmail.com</t>
-  </si>
-  <si>
-    <t>llamacoinonsol@gmail.com</t>
-  </si>
-  <si>
-    <t>cdsajans@gmail.com</t>
-  </si>
-  <si>
-    <t>alptekinerumut@gmail.com</t>
-  </si>
-  <si>
-    <t>barbosamargaretta06@gmail.com</t>
-  </si>
-  <si>
-    <t>sinanorn1982@gmail.com</t>
-  </si>
-  <si>
-    <t>necatimuazy@gmail.com</t>
-  </si>
-  <si>
-    <t>hakki4492@gmail.com</t>
-  </si>
-  <si>
-    <t>ardazeytinci013@gmail.com</t>
-  </si>
-  <si>
-    <t>mehmethasan5565@gmail.com</t>
-  </si>
-  <si>
-    <t>clhcriswell485@gmail.com</t>
-  </si>
-  <si>
-    <t>senabors01@gmail.com</t>
-  </si>
-  <si>
-    <t>shera.holton837@gmail.com</t>
-  </si>
-  <si>
-    <t>vernvernon610@gmail.com</t>
-  </si>
-  <si>
-    <t>boga01160@gmail.com</t>
-  </si>
-  <si>
-    <t>emrebabacan218@gmail.com</t>
-  </si>
-  <si>
-    <t>ahmetkrclarr@gmail.com</t>
-  </si>
-  <si>
-    <t>melihdenirlelr@gmail.com</t>
-  </si>
-  <si>
-    <t>ozlemtugay782@gmail.com</t>
-  </si>
-  <si>
-    <t>ethemyaren87@gmail.com</t>
-  </si>
-  <si>
-    <t>sametakord@gmail.com</t>
-  </si>
-  <si>
-    <t>isiklibaran117@gmail.com</t>
-  </si>
-  <si>
-    <t>ammonssh96@gmail.com</t>
-  </si>
-  <si>
-    <t>onurisiktugay@gmail.com</t>
-  </si>
-  <si>
-    <t>mallard16arlie@gmail.com</t>
-  </si>
-  <si>
-    <t>ahmetkarakayaahmet12@gmail.com</t>
-  </si>
-  <si>
-    <t>erhanbaran832@gmail.com</t>
-  </si>
-  <si>
-    <t>okanguardiola@gmail.com</t>
-  </si>
-  <si>
-    <t>ardakircarda@gmail.com</t>
-  </si>
-  <si>
-    <t>erhangetirgotur@gmail.com</t>
-  </si>
-  <si>
-    <t>sonaty@btcozum.com</t>
-  </si>
-  <si>
-    <t>netcan56@gmail.com</t>
-  </si>
-  <si>
-    <t>bil-al93@hotmail.com</t>
-  </si>
-  <si>
-    <t>gokaykaygin@gmail.com</t>
-  </si>
-  <si>
-    <t>vhb7j8pgk7@privaterelay.appleid.com</t>
-  </si>
-  <si>
-    <t>busraerdogdu1107@gmail.com</t>
-  </si>
-  <si>
-    <t>alexipaycharov@gmail.com</t>
-  </si>
-  <si>
-    <t>ahmetaydinhesap8@gmail.com</t>
-  </si>
-  <si>
-    <t>volkanbey1999@gmail.com</t>
-  </si>
-  <si>
-    <t>cetinb.26x@gmail.com</t>
-  </si>
-  <si>
-    <t>kerodenem@gmail.com</t>
-  </si>
-  <si>
-    <t>aleksandrtsulaya09@gmail.com</t>
-  </si>
-  <si>
-    <t>skytale09@gmail.com</t>
-  </si>
-  <si>
-    <t>katakavaddx@gmail.com</t>
-  </si>
-  <si>
-    <t>ilyas.emrah65@gmail.com</t>
-  </si>
-  <si>
-    <t>gbaran092@gmail.com</t>
-  </si>
-  <si>
-    <t>katakavaebanat@gmail.com</t>
-  </si>
-  <si>
-    <t>cx22xyj98c@privaterelay.appleid.com</t>
-  </si>
-  <si>
-    <t>hxqfpjpjhc@privaterelay.appleid.com</t>
-  </si>
-  <si>
-    <t>hasanelcioglu41@gmail.com</t>
-  </si>
-  <si>
-    <t>coffemurp@gmail.com</t>
-  </si>
-  <si>
-    <t>furkanerkmen50@gmail.com</t>
-  </si>
-  <si>
-    <t>dndszr1982@gmail.com</t>
-  </si>
-  <si>
-    <t>5xwn2mk48v@privaterelay.appleid.com</t>
-  </si>
-  <si>
-    <t>1903murad@gmail.com</t>
-  </si>
-  <si>
-    <t>dilekglpnr@outlook.com</t>
-  </si>
-  <si>
-    <t>dtyildiz17@outlook.com</t>
-  </si>
-  <si>
-    <t>novi3333333333@gmail.com</t>
-  </si>
-  <si>
-    <t>gokturktanriverdi2005@gmail.com</t>
-  </si>
-  <si>
-    <t>bosunerkan8@gmail.com</t>
-  </si>
-  <si>
-    <t>akinhasan91@gmail.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+  <si>
+    <t>mkaraus82@gmail.com</t>
+  </si>
+  <si>
+    <t>bytegenlabs@gmail.com</t>
+  </si>
+  <si>
+    <t>erayalpkan@hotmail.com</t>
+  </si>
+  <si>
+    <t>arya.majidi82@gmail.com</t>
+  </si>
+  <si>
+    <t>aryamaja03@gmail.com</t>
+  </si>
+  <si>
+    <t>aycaerturk123@gmail.com</t>
+  </si>
+  <si>
+    <t>cyb3rmx0@gmail.com</t>
+  </si>
+  <si>
+    <t>ossmanuzun79@gmail.com</t>
+  </si>
+  <si>
+    <t>ozkancvs1@gmail.com</t>
+  </si>
+  <si>
+    <t>samilgedik@hotmail.com</t>
+  </si>
+  <si>
+    <t>sakineakgun36@gmail.com</t>
+  </si>
+  <si>
+    <t>xgjm86ncvc@privaterelay.appleid.com</t>
+  </si>
+  <si>
+    <t>ahmetugr1903@hotmail.com</t>
+  </si>
+  <si>
+    <t>bayerdem1612@hotmail.com</t>
+  </si>
+  <si>
+    <t>jansalles13@gmail.com</t>
+  </si>
+  <si>
+    <t>flayzeraynx@gmail.com</t>
+  </si>
+  <si>
+    <t>cerqesaw@hotmail.com</t>
+  </si>
+  <si>
+    <t>sinanerkan85@gmail.com</t>
+  </si>
+  <si>
+    <t>q8n9gjrjf9@privaterelay.appleid.com</t>
+  </si>
+  <si>
+    <t>berk.sirinler@gmail.com</t>
+  </si>
+  <si>
+    <t>nisayildirim807@gmail.com</t>
+  </si>
+  <si>
+    <t>gldemaktiman@yandex.com</t>
+  </si>
+  <si>
+    <t>yildirimcemal632@gmail.com</t>
+  </si>
+  <si>
+    <t>fyyildirim33.21@gmail.com</t>
+  </si>
+  <si>
+    <t>nft.cmle111@gmail.com</t>
+  </si>
+  <si>
+    <t>osmanoruc@gmail.com</t>
+  </si>
+  <si>
+    <t>ekremcetin68@icloud.com</t>
+  </si>
+  <si>
+    <t>koenkokbacotcok@gmail.com</t>
+  </si>
+  <si>
+    <t>rdwi12986@gmail.com</t>
+  </si>
+  <si>
+    <t>av.baris56@gmail.com</t>
+  </si>
+  <si>
+    <t>ibrahim_somek@windowslive.com</t>
+  </si>
+  <si>
+    <t>mustafadindi90@gmail.com</t>
+  </si>
+  <si>
+    <t>dindimustafa0@gmail.com</t>
+  </si>
+  <si>
+    <t>recepgokhanakcay.private@gmail.com</t>
+  </si>
+  <si>
+    <t>hayatdevamm.5@gmail.com</t>
+  </si>
+  <si>
+    <t>ozkan.41.41@outlook.com</t>
+  </si>
+  <si>
+    <t>sam.sam.sssd123@gmail.com</t>
+  </si>
+  <si>
+    <t>cryptofobi@gmail.com</t>
+  </si>
+  <si>
+    <t>ozlem-1308@hotmail.com</t>
+  </si>
+  <si>
+    <t>erolaa24@gmail.com</t>
+  </si>
+  <si>
+    <t>viyanckmz1999@gmail.com</t>
+  </si>
+  <si>
+    <t>reshadrasulzade@gmail.com</t>
+  </si>
+  <si>
+    <t>joehahnnn@gmail.com</t>
+  </si>
+  <si>
+    <t>bebetoocuk@gmail.com</t>
+  </si>
+  <si>
+    <t>solmaz3@hotmail.com</t>
+  </si>
+  <si>
+    <t>suantidewii@gmail.com</t>
+  </si>
+  <si>
+    <t>burakturgut553@gmail.com</t>
+  </si>
+  <si>
+    <t>enginkaraer92@gmail.com</t>
+  </si>
+  <si>
+    <t>ozcanyesil4266@gmail.com</t>
+  </si>
+  <si>
+    <t>slmgykl@hotmail.com</t>
+  </si>
+  <si>
+    <t>bozkurtsamed45@gmail.com</t>
+  </si>
+  <si>
+    <t>mehmetaltinoz86@gmail.com</t>
+  </si>
+  <si>
+    <t>brlyz.2005@gmail.com</t>
+  </si>
+  <si>
+    <t>ghmmojgeqkeh4@gmail.com</t>
+  </si>
+  <si>
+    <t>fatmabalhan@gmail.com</t>
+  </si>
+  <si>
+    <t>akdagbrolyz@gmail.com</t>
+  </si>
+  <si>
+    <t>isayurtsever@gmail.com</t>
+  </si>
+  <si>
+    <t>craydin@gmail.com</t>
+  </si>
+  <si>
+    <t>yigitbilginva1@gmail.com</t>
+  </si>
+  <si>
+    <t>serdargorel78@gmail.com</t>
+  </si>
+  <si>
+    <t>beyzatosun16@icloud.com</t>
+  </si>
+  <si>
+    <t>egehanavcu03@gmail.com</t>
+  </si>
+  <si>
+    <t>ademayyilmaz@gmail.com</t>
+  </si>
+  <si>
+    <t>huseyin.cengiz19@gmail.com</t>
+  </si>
+  <si>
+    <t>yolcuruzgarbaris@gmail.com</t>
+  </si>
+  <si>
+    <t>emre.gorgum@gmail.com</t>
+  </si>
+  <si>
+    <t>vestranmustafa@hotmail.com</t>
+  </si>
+  <si>
+    <t>orhanguler3844@yandex.com</t>
+  </si>
+  <si>
+    <t>znmyapidekorasyon@gmail.com</t>
+  </si>
+  <si>
+    <t>ftmust7878@hotmail.com</t>
+  </si>
+  <si>
+    <t>hasmelvin2006@gmail.com</t>
+  </si>
+  <si>
+    <t>kemalcangs54@gmail.com</t>
+  </si>
+  <si>
+    <t>metinaydn1@gmail.com</t>
+  </si>
+  <si>
+    <t>yagmurgulsahdede@gmail.com</t>
+  </si>
+  <si>
+    <t>emelduman1991@gmail.com</t>
+  </si>
+  <si>
+    <t>sckv7kdq9t@privaterelay.appleid.com</t>
+  </si>
+  <si>
+    <t>bggjxhvyt2@privaterelay.appleid.com</t>
+  </si>
+  <si>
+    <t>larzaliraza@gmail.com</t>
+  </si>
+  <si>
+    <t>sefayurtsever012345@gmail.com</t>
+  </si>
+  <si>
+    <t>bilal.drsn75@icloud.com</t>
+  </si>
+  <si>
+    <t>ilknurisikoglu@gmail.com</t>
+  </si>
+  <si>
+    <t>mehmetazatkeles@gmail.com</t>
+  </si>
+  <si>
+    <t>beko__24@hotmail.com</t>
+  </si>
+  <si>
+    <t>renojancok1987@gmail.com</t>
+  </si>
+  <si>
+    <t>8naziretas@gmail.com</t>
+  </si>
+  <si>
+    <t>sukeri488@gmail.com</t>
+  </si>
+  <si>
+    <t>anastaciamattar@gmail.com</t>
+  </si>
+  <si>
+    <t>drpinga@gmail.com</t>
+  </si>
+  <si>
+    <t>agitdm620@gmail.com</t>
+  </si>
+  <si>
+    <t>bardockweb@hotmail.com</t>
+  </si>
+  <si>
+    <t>barutcumemet2@gmail.com</t>
+  </si>
+  <si>
+    <t>fbt5434@gmail.com</t>
+  </si>
+  <si>
+    <t>melisarslann26@gmail.com</t>
+  </si>
+  <si>
+    <t>bznh7c6wzz@privaterelay.appleid.com</t>
+  </si>
+  <si>
+    <t>furkan.eskcolu@hotmail.com</t>
+  </si>
+  <si>
+    <t>mbvestra@gmail.com</t>
+  </si>
+  <si>
+    <t>byamanlar@gmail.com</t>
+  </si>
+  <si>
+    <t>cihanilhan1903@icloud.com</t>
+  </si>
+  <si>
+    <t>nazliaakts5252@gmail.com</t>
+  </si>
+  <si>
+    <t>ufuk.balci.31@gmail.com</t>
+  </si>
+  <si>
+    <t>mertcan1883@gmail.com</t>
+  </si>
+  <si>
+    <t>bagistekstil@gmail.com</t>
+  </si>
+  <si>
+    <t>tiktubeee@gmail.com</t>
+  </si>
+  <si>
+    <t>abdullahkaracasm@gmail.com</t>
+  </si>
+  <si>
+    <t>halilkrts00@gmail.com</t>
+  </si>
+  <si>
+    <t>hnwngq9665@privaterelay.appleid.com</t>
+  </si>
+  <si>
+    <t>suleymantrade050@gmail.com</t>
+  </si>
+  <si>
+    <t>mehmetsevim50@hotmail.com</t>
+  </si>
+  <si>
+    <t>05415681170telno@gmail.com</t>
+  </si>
+  <si>
+    <t>jeanomsgreyhat@gmail.com</t>
+  </si>
+  <si>
+    <t>naz.hh43@gmail.com</t>
+  </si>
+  <si>
+    <t>dbxb9mvfqr@privaterelay.appleid.com</t>
+  </si>
+  <si>
+    <t>isaceviz313@gmail.com</t>
+  </si>
+  <si>
+    <t>muhammet200028@gmail.com</t>
+  </si>
+  <si>
+    <t>elazighastane0023100@gmail.com</t>
+  </si>
+  <si>
+    <t>ekremok.erz@gmail.com</t>
+  </si>
+  <si>
+    <t>ozkulumustafa9@gmail.com</t>
+  </si>
+  <si>
+    <t>deryagncgns@gmail.com</t>
+  </si>
+  <si>
+    <t>uludaghuseyin@hotmail.com</t>
+  </si>
+  <si>
+    <t>denizkeskinadak@hotmail.com</t>
+  </si>
+  <si>
+    <t>accforwlist@gmail.com</t>
+  </si>
+  <si>
+    <t>rashad7919739@gmail.com</t>
+  </si>
+  <si>
+    <t>malatyabakis44@gmail.com</t>
+  </si>
+  <si>
+    <t>ozkannouma1@gmail.com</t>
+  </si>
+  <si>
+    <t>swq42w9frc@privaterelay.appleid.com</t>
+  </si>
+  <si>
+    <t>safiyeyavru@gmail.com</t>
+  </si>
+  <si>
+    <t>serifebattal@gmail.com</t>
+  </si>
+  <si>
+    <t>matingharani22@gmail.com</t>
+  </si>
+  <si>
+    <t>elparinoantonio@gmail.com</t>
+  </si>
+  <si>
+    <t>fclone3333@gmail.com</t>
+  </si>
+  <si>
+    <t>gostavomantamino@gmail.com</t>
+  </si>
+  <si>
+    <t>eeddi0641@gmail.com</t>
+  </si>
+  <si>
+    <t>fclone1111@gmail.com</t>
+  </si>
+  <si>
+    <t>thanoswasright619@gmail.com</t>
+  </si>
+  <si>
+    <t>bellona2750@gmail.com</t>
+  </si>
+  <si>
+    <t>mattingh2@gmail.com</t>
+  </si>
+  <si>
+    <t>zaferayhann16@gmail.com</t>
+  </si>
+  <si>
+    <t>ahmetdemiray5867@gmail.com</t>
+  </si>
+  <si>
+    <t>hiesenberg2750@gmail.com</t>
+  </si>
+  <si>
+    <t>endersezgindrop@gmail.com</t>
+  </si>
+  <si>
+    <t>55bythehayat@gmail.com</t>
+  </si>
+  <si>
+    <t>erendogaaann@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -913,858 +832,723 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D262FFE-B8A2-2B4C-8AE4-8BBCBCDAE7E3}">
-  <dimension ref="A1:A169"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEF2404-8CA4-A045-A108-F3E8056C8568}">
+  <dimension ref="A1:A142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
